--- a/parabolic/2025/09/12/parabolic.xlsx
+++ b/parabolic/2025/09/12/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
-        <v>452300</v>
+        <v>639700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D3" t="n">
-        <v>473900</v>
+        <v>580500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3392</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>862</v>
+        <v>718</v>
       </c>
       <c r="D4" t="n">
-        <v>163100</v>
+        <v>120800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6347</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>245</v>
+        <v>874</v>
       </c>
       <c r="D5" t="n">
-        <v>358800</v>
+        <v>232600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="D6" t="n">
-        <v>256400</v>
+        <v>773500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>4777</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="D7" t="n">
-        <v>3525800</v>
+        <v>311800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>6347</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D8" t="n">
-        <v>3698600</v>
+        <v>412300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,16 +643,131 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="D9" t="n">
-        <v>363500</v>
+        <v>190800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>488</v>
+      </c>
+      <c r="D10" t="n">
+        <v>545000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7640</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>203</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6088800</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>290</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4893800</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8203</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>105000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8600</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>662</v>
+      </c>
+      <c r="D14" t="n">
+        <v>402600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/12/parabolic.xlsx
+++ b/parabolic/2025/09/12/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D2" t="n">
-        <v>639700</v>
+        <v>686500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" t="n">
-        <v>580500</v>
+        <v>732100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="D4" t="n">
-        <v>120800</v>
+        <v>175800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="D5" t="n">
-        <v>232600</v>
+        <v>260800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D6" t="n">
-        <v>773500</v>
+        <v>1055100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4777</t>
+          <t>4593</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>233</v>
+        <v>580</v>
       </c>
       <c r="D7" t="n">
-        <v>311800</v>
+        <v>4615800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6347</t>
+          <t>4777</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D8" t="n">
-        <v>412300</v>
+        <v>353800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>612</v>
+        <v>995</v>
       </c>
       <c r="D9" t="n">
-        <v>190800</v>
+        <v>255900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6347</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="D10" t="n">
-        <v>545000</v>
+        <v>434000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>203</v>
+        <v>605</v>
       </c>
       <c r="D11" t="n">
-        <v>6088800</v>
+        <v>259100</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>6666</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>290</v>
+        <v>459</v>
       </c>
       <c r="D12" t="n">
-        <v>4893800</v>
+        <v>1045000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>875</v>
+        <v>198</v>
       </c>
       <c r="D13" t="n">
-        <v>105000</v>
+        <v>7458000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>7692</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,85 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>662</v>
+        <v>111</v>
       </c>
       <c r="D14" t="n">
-        <v>402600</v>
+        <v>8784100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>290</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4893800</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8203</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>871</v>
+      </c>
+      <c r="D16" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8600</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>657</v>
+      </c>
+      <c r="D17" t="n">
+        <v>479400</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/12/parabolic.xlsx
+++ b/parabolic/2025/09/12/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
-        <v>686500</v>
+        <v>908900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D3" t="n">
-        <v>732100</v>
+        <v>957800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D4" t="n">
-        <v>175800</v>
+        <v>271700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D5" t="n">
-        <v>260800</v>
+        <v>302500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>553</v>
       </c>
       <c r="D6" t="n">
-        <v>1055100</v>
+        <v>1678600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>580</v>
+        <v>999</v>
       </c>
       <c r="D7" t="n">
-        <v>4615800</v>
+        <v>124600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4777</t>
+          <t>4593</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>230</v>
+        <v>585</v>
       </c>
       <c r="D8" t="n">
-        <v>353800</v>
+        <v>6494300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>4777</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>995</v>
+        <v>228</v>
       </c>
       <c r="D9" t="n">
-        <v>255900</v>
+        <v>366900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6347</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="D10" t="n">
-        <v>434000</v>
+        <v>221200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>5248</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="D11" t="n">
-        <v>259100</v>
+        <v>868500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>459</v>
+        <v>996</v>
       </c>
       <c r="D12" t="n">
-        <v>1045000</v>
+        <v>379700</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>6347</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
-        <v>7458000</v>
+        <v>456600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>111</v>
+        <v>605</v>
       </c>
       <c r="D14" t="n">
-        <v>8784100</v>
+        <v>327500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>6666</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>290</v>
+        <v>459</v>
       </c>
       <c r="D15" t="n">
-        <v>4893800</v>
+        <v>1178300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>7177</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>871</v>
+        <v>999</v>
       </c>
       <c r="D16" t="n">
-        <v>123000</v>
+        <v>256900</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,16 +827,108 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>657</v>
+        <v>203</v>
       </c>
       <c r="D17" t="n">
-        <v>479400</v>
+        <v>8641100</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>112</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10432100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>290</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5363600</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8203</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>877</v>
+      </c>
+      <c r="D20" t="n">
+        <v>170600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8600</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>657</v>
+      </c>
+      <c r="D21" t="n">
+        <v>620900</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
